--- a/medicine/Psychotrope/Friuli_Aquileia_Refosco_dal_peduncolo_rosso_superiore/Friuli_Aquileia_Refosco_dal_peduncolo_rosso_superiore.xlsx
+++ b/medicine/Psychotrope/Friuli_Aquileia_Refosco_dal_peduncolo_rosso_superiore/Friuli_Aquileia_Refosco_dal_peduncolo_rosso_superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Friuli Aquileia Refosco dal peduncolo rosso superiore est un vin rouge italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 6 août 1988. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Udine dans les communes de Bagnaria Arsa, Cervignano del Friuli, Aquileia, Fiumicello, Villa Vicentina, Ruda, Campolongo Tapogliano, Aiello del Friuli, Visco et San Vito al Torre ainsi qu'en partie dans les communes de Santa Maria la Longa, Palmanova, Terzo d'Aquileia, Chiopris-Viscone, Trivignano Udinese et Gonars.
 Le Friuli Aquileia Refosco dal peduncolo rosso superiore répond à un cahier des charges plus exigeant que le Friuli Aquileia Refosco dal peduncolo rosso, essentiellement en relation avec le taux d’alcool.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis avec des reflets violacés
 odeur : caractéristique, vineux
@@ -578,7 +594,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
